--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_software_entertainment.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.008048780487804878</v>
+        <v>-0.0400523560209424</v>
       </c>
       <c r="H2">
-        <v>-0.02963414634146342</v>
+        <v>-0.06858638743455497</v>
       </c>
       <c r="I2">
-        <v>-0.09353737179001244</v>
+        <v>-0.1230366492146597</v>
       </c>
       <c r="J2">
-        <v>-0.09353737179001244</v>
+        <v>-0.1230366492146597</v>
       </c>
       <c r="K2">
-        <v>-2.7</v>
+        <v>-3.19</v>
       </c>
       <c r="L2">
-        <v>-0.1646341463414634</v>
+        <v>-0.1670157068062827</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.74</v>
+        <v>5.11</v>
       </c>
       <c r="V2">
-        <v>0.1574774774774775</v>
+        <v>0.08295454545454546</v>
       </c>
       <c r="W2">
-        <v>-0.3501945525291829</v>
+        <v>-0.1945121951219512</v>
       </c>
       <c r="X2">
-        <v>0.08122523724498215</v>
+        <v>0.06303818991073366</v>
       </c>
       <c r="Y2">
-        <v>-0.4314197897741651</v>
+        <v>-0.2575503850326849</v>
       </c>
       <c r="Z2">
-        <v>9.618404539620343</v>
+        <v>5.900525177633615</v>
       </c>
       <c r="AA2">
-        <v>-0.8996802814492115</v>
+        <v>-0.7259808464627746</v>
       </c>
       <c r="AB2">
-        <v>0.08020446827630022</v>
+        <v>0.06258170218835768</v>
       </c>
       <c r="AC2">
-        <v>-0.9798847497255118</v>
+        <v>-0.7885625486511323</v>
       </c>
       <c r="AD2">
-        <v>0.727</v>
+        <v>0.639</v>
       </c>
       <c r="AE2">
-        <v>0.3450644867810205</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.072064486781021</v>
+        <v>0.639</v>
       </c>
       <c r="AG2">
-        <v>-7.66793551321898</v>
+        <v>-4.471</v>
       </c>
       <c r="AH2">
-        <v>0.01895042184701472</v>
+        <v>0.01026687446777744</v>
       </c>
       <c r="AI2">
-        <v>0.06135877575269488</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="AJ2">
-        <v>-0.1603095244893331</v>
+        <v>-0.07826147840851407</v>
       </c>
       <c r="AK2">
-        <v>-0.8781354655393392</v>
+        <v>-0.4595539109877686</v>
       </c>
       <c r="AL2">
-        <v>0.058</v>
+        <v>1.8</v>
       </c>
       <c r="AM2">
-        <v>-0.7679999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="AN2">
-        <v>-1.201652892561983</v>
+        <v>-0.4915384615384615</v>
       </c>
       <c r="AO2">
-        <v>-28.79310344827586</v>
+        <v>-1.305555555555556</v>
       </c>
       <c r="AP2">
-        <v>12.67427357556856</v>
+        <v>3.439230769230769</v>
       </c>
       <c r="AQ2">
-        <v>2.174479166666667</v>
+        <v>-1.305555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.008048780487804878</v>
+        <v>-0.0400523560209424</v>
       </c>
       <c r="H3">
-        <v>-0.02963414634146342</v>
+        <v>-0.06858638743455497</v>
       </c>
       <c r="I3">
-        <v>-0.09353737179001244</v>
+        <v>-0.1230366492146597</v>
       </c>
       <c r="J3">
-        <v>-0.09353737179001244</v>
+        <v>-0.1230366492146597</v>
       </c>
       <c r="K3">
-        <v>-2.7</v>
+        <v>-3.19</v>
       </c>
       <c r="L3">
-        <v>-0.1646341463414634</v>
+        <v>-0.1670157068062827</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>8.74</v>
+        <v>5.11</v>
       </c>
       <c r="V3">
-        <v>0.1574774774774775</v>
+        <v>0.08295454545454546</v>
       </c>
       <c r="W3">
-        <v>-0.3501945525291829</v>
+        <v>-0.1945121951219512</v>
       </c>
       <c r="X3">
-        <v>0.08122523724498215</v>
+        <v>0.06303818991073366</v>
       </c>
       <c r="Y3">
-        <v>-0.4314197897741651</v>
+        <v>-0.2575503850326849</v>
       </c>
       <c r="Z3">
-        <v>9.618404539620343</v>
+        <v>5.900525177633615</v>
       </c>
       <c r="AA3">
-        <v>-0.8996802814492115</v>
+        <v>-0.7259808464627746</v>
       </c>
       <c r="AB3">
-        <v>0.08020446827630022</v>
+        <v>0.06258170218835768</v>
       </c>
       <c r="AC3">
-        <v>-0.9798847497255118</v>
+        <v>-0.7885625486511323</v>
       </c>
       <c r="AD3">
-        <v>0.727</v>
+        <v>0.639</v>
       </c>
       <c r="AE3">
-        <v>0.3450644867810205</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.072064486781021</v>
+        <v>0.639</v>
       </c>
       <c r="AG3">
-        <v>-7.66793551321898</v>
+        <v>-4.471</v>
       </c>
       <c r="AH3">
-        <v>0.01895042184701472</v>
+        <v>0.01026687446777744</v>
       </c>
       <c r="AI3">
-        <v>0.06135877575269488</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="AJ3">
-        <v>-0.1603095244893331</v>
+        <v>-0.07826147840851407</v>
       </c>
       <c r="AK3">
-        <v>-0.8781354655393392</v>
+        <v>-0.4595539109877686</v>
       </c>
       <c r="AL3">
-        <v>0.058</v>
+        <v>1.8</v>
       </c>
       <c r="AM3">
-        <v>-0.7679999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="AN3">
-        <v>-1.201652892561983</v>
+        <v>-0.4915384615384615</v>
       </c>
       <c r="AO3">
-        <v>-28.79310344827586</v>
+        <v>-1.305555555555556</v>
       </c>
       <c r="AP3">
-        <v>12.67427357556856</v>
+        <v>3.439230769230769</v>
       </c>
       <c r="AQ3">
-        <v>2.174479166666667</v>
+        <v>-1.305555555555556</v>
       </c>
     </row>
   </sheetData>
